--- a/pred_ohlcv/54_21/2019-10-19 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 MTL ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-31745.67981112</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-31727.00771112</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-42062.07021112001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-78351.27921112001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-79393.66261112002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-76772.67561112001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-75328.67561112001</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-82985.48561112001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-81792.37161112</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-81792.37161112</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-78572.37161112</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-80700.29491112</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-68044.15501111999</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-52824.12369203998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-52823.12369203998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-52995.90359203998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-52994.90359203998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-56058.63379203998</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-57476.32199203998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-59375.03969203998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-59661.49779203998</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-59714.38749203998</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-59691.12109203998</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-49100.35579203997</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-49062.66699203997</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-53378.64029203996</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-53368.64029203996</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-53540.64029203996</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-56689.59439203997</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 MTL ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-21083.74581112</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-21438.46231112</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-31745.67981112</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-31727.00771112</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-78351.27921112001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-79393.66261112002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-76580.55591112001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-76772.67561112001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-75328.67561112001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-82985.48561112001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-81792.37161112</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-80701.29491112</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-80700.29491112</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-78737.40301112</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-68044.15501111999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-52824.12369203998</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-52823.12369203998</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-52995.90359203998</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-52994.90359203998</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-56059.63379203998</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-56058.63379203998</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-57476.32199203998</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-59375.03969203998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-59275.03969203998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-59661.49779203998</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-59714.38749203998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-59691.12109203998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-49100.35579203997</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-49062.66699203997</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-53378.64029203996</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-53368.64029203996</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-53538.64029203996</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-53540.64029203996</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-56689.59439203997</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
